--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,83</t>
+          <t>0,42; 13,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -9,01</t>
+          <t>-16,85; -8,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,44</t>
+          <t>-5,87; 5,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,34; -10,61</t>
+          <t>-19,3; -10,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,81</t>
+          <t>-0,67; 7,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -10,58</t>
+          <t>-16,73; -10,55</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 133,14</t>
+          <t>2,99; 135,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 46,08</t>
+          <t>-32,75; 50,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -92,79</t>
+          <t>-100,0; -92,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 69,04</t>
+          <t>-4,02; 69,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -94,48</t>
+          <t>-100,0; -95,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -7,18</t>
+          <t>-16,8; -6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -6,3</t>
+          <t>-15,84; -6,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -0,67</t>
+          <t>-12,95; -1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -5,93</t>
+          <t>-14,47; -5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,42; -0,84</t>
+          <t>-9,96; -0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,18</t>
+          <t>-8,42; 0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -7,75</t>
+          <t>-14,32; -7,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -4,83</t>
+          <t>-11,64; -4,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -1,76</t>
+          <t>-9,29; -1,74</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,67; -33,74</t>
+          <t>-62,68; -30,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,32; -29,24</t>
+          <t>-58,95; -29,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -2,41</t>
+          <t>-48,99; -4,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,86; -31,82</t>
+          <t>-64,33; -29,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,98; -4,21</t>
+          <t>-44,57; -3,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 1,0</t>
+          <t>-37,23; 2,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,42; -37,01</t>
+          <t>-59,66; -38,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -24,03</t>
+          <t>-49,04; -23,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,67; -8,58</t>
+          <t>-39,09; -8,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,31; 24,16</t>
+          <t>11,43; 24,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,9</t>
+          <t>-8,49; 1,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -1,61</t>
+          <t>-10,54; -1,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 10,61</t>
+          <t>0,06; 10,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,77</t>
+          <t>-3,98; 6,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,44</t>
+          <t>-8,17; 0,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 15,4</t>
+          <t>7,24; 15,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,12</t>
+          <t>-5,06; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -1,92</t>
+          <t>-8,56; -2,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,81; 242,93</t>
+          <t>75,72; 259,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 9,5</t>
+          <t>-54,49; 16,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,77; -15,2</t>
+          <t>-70,1; -13,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 113,1</t>
+          <t>0,01; 123,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 63,22</t>
+          <t>-29,83; 67,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 7,2</t>
+          <t>-59,18; 7,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,37; 154,81</t>
+          <t>51,43; 153,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 21,68</t>
+          <t>-35,64; 20,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,71; -18,66</t>
+          <t>-60,14; -17,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -3,14</t>
+          <t>-13,33; -2,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -3,18</t>
+          <t>-14,9; -3,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -1,61</t>
+          <t>-15,6; -2,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,1</t>
+          <t>-6,52; 1,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 3,31</t>
+          <t>-6,1; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,73</t>
+          <t>-7,35; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -1,5</t>
+          <t>-7,99; -1,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -1,38</t>
+          <t>-8,52; -1,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -1,53</t>
+          <t>-9,3; -1,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -15,41</t>
+          <t>-49,72; -13,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,77; -16,82</t>
+          <t>-57,28; -16,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -6,66</t>
+          <t>-60,89; -5,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 19,99</t>
+          <t>-42,16; 20,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 35,62</t>
+          <t>-39,52; 33,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 16,28</t>
+          <t>-47,87; 18,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -8,42</t>
+          <t>-41,63; -10,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,74; -8,77</t>
+          <t>-43,0; -4,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,96; -10,19</t>
+          <t>-47,11; -8,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 10,33</t>
+          <t>0,31; 10,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 1,65</t>
+          <t>-7,02; 1,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 4,33</t>
+          <t>-4,4; 4,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 10,28</t>
+          <t>-0,31; 10,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -2,97</t>
+          <t>-9,61; -3,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 1,66</t>
+          <t>-6,75; 1,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,47</t>
+          <t>1,1; 8,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -1,69</t>
+          <t>-6,53; -1,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,91</t>
+          <t>-4,22; 1,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 298,55</t>
+          <t>-4,35; 331,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,65; 61,96</t>
+          <t>-81,02; 51,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 123,65</t>
+          <t>-57,83; 120,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 263,08</t>
+          <t>-6,16; 231,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,89</t>
+          <t>-100,0; -39,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,38; 57,69</t>
+          <t>-72,01; 50,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,51; 197,19</t>
+          <t>12,16; 181,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-87,23; -31,11</t>
+          <t>-86,7; -32,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 47,19</t>
+          <t>-54,81; 37,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,48</t>
+          <t>0,12; 15,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-28,88; -17,85</t>
+          <t>-29,09; -18,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 4,77</t>
+          <t>-9,97; 3,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 12,81</t>
+          <t>0,05; 13,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -7,37</t>
+          <t>-17,74; -7,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,93</t>
+          <t>6,55; 19,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,91; 12,14</t>
+          <t>2,24; 12,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-21,47; -13,77</t>
+          <t>-21,44; -13,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,81</t>
+          <t>0,32; 9,4</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 68,45</t>
+          <t>-0,31; 71,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-96,98; -80,87</t>
+          <t>-96,33; -81,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 21,92</t>
+          <t>-34,46; 17,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 97,87</t>
+          <t>-0,03; 102,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-87,88; -52,95</t>
+          <t>-88,73; -56,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>32,0; 144,74</t>
+          <t>31,91; 146,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,53; 67,02</t>
+          <t>9,84; 65,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,86; -75,12</t>
+          <t>-90,84; -75,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>0,52; 54,3</t>
+          <t>1,06; 50,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,92; 16,55</t>
+          <t>8,12; 16,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,09</t>
+          <t>-2,66; 6,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,02</t>
+          <t>-3,87; 5,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,64</t>
+          <t>7,79; 15,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,93</t>
+          <t>2,52; 10,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,37</t>
+          <t>-3,69; 5,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,36</t>
+          <t>9,02; 14,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,61</t>
+          <t>1,15; 6,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,12</t>
+          <t>-2,79; 3,96</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>51,23; 149,04</t>
+          <t>54,53; 153,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 46,97</t>
+          <t>-17,79; 54,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 43,46</t>
+          <t>-25,43; 45,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>62,35; 195,2</t>
+          <t>65,89; 194,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,0; 120,43</t>
+          <t>18,61; 118,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 61,01</t>
+          <t>-31,7; 64,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>72,7; 152,42</t>
+          <t>69,47; 145,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,9; 65,66</t>
+          <t>9,01; 64,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 39,78</t>
+          <t>-21,77; 38,67</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -0,12</t>
+          <t>-6,34; -0,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,75</t>
+          <t>4,81; 11,77</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,61; 24,57</t>
+          <t>13,34; 24,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,41</t>
+          <t>-5,14; 0,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,71</t>
+          <t>5,61; 12,69</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,75; 12,35</t>
+          <t>5,62; 12,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -0,56</t>
+          <t>-4,69; -0,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,29; 11,3</t>
+          <t>6,19; 11,36</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,25</t>
+          <t>11,29; 17,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -1,22</t>
+          <t>-51,49; 0,19</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>38,2; 125,94</t>
+          <t>38,37; 129,39</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>113,14; 269,38</t>
+          <t>118,56; 280,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 6,38</t>
+          <t>-46,24; 6,31</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>50,23; 158,13</t>
+          <t>51,04; 159,2</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>48,58; 152,89</t>
+          <t>48,55; 158,99</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-41,56; -4,6</t>
+          <t>-42,55; -7,56</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>55,75; 126,07</t>
+          <t>56,18; 126,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>102,99; 196,41</t>
+          <t>103,7; 194,71</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,74</t>
+          <t>0,15; 3,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,62</t>
+          <t>-4,15; -0,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,27</t>
+          <t>-0,67; 3,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,58</t>
+          <t>-0,52; 2,78</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,72</t>
+          <t>-0,46; 2,72</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,28</t>
+          <t>-1,21; 2,28</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,72</t>
+          <t>0,23; 2,71</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,72</t>
+          <t>-1,7; 0,65</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,21</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,54</t>
+          <t>0,77; 24,25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -4,33</t>
+          <t>-25,06; -4,13</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 22,16</t>
+          <t>-4,5; 21,37</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 21,67</t>
+          <t>-3,97; 23,41</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 23,0</t>
+          <t>-3,51; 23,34</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 19,9</t>
+          <t>-9,18; 19,36</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,81; 20,37</t>
+          <t>1,36; 20,24</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,41</t>
+          <t>-11,75; 4,86</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,13</t>
+          <t>-3,98; 16,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 13,04</t>
+          <t>1,18; 14,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -8,85</t>
+          <t>-16,85; -8,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 5,7</t>
+          <t>-5,93; 5,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -10,52</t>
+          <t>-19,06; -10,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,82</t>
+          <t>-1,55; 7,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -10,55</t>
+          <t>-16,72; -10,63</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 135,68</t>
+          <t>6,42; 145,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 50,82</t>
+          <t>-33,57; 51,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -92,7</t>
+          <t>-100,0; -93,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 69,39</t>
+          <t>-9,91; 65,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -95,47</t>
+          <t>-100,0; -96,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,8; -6,5</t>
+          <t>-16,69; -7,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -6,37</t>
+          <t>-16,36; -6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -1,11</t>
+          <t>-13,3; -1,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -5,15</t>
+          <t>-14,3; -5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -0,74</t>
+          <t>-9,8; -0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 0,23</t>
+          <t>-9,37; 0,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -7,69</t>
+          <t>-14,15; -7,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -4,81</t>
+          <t>-11,67; -4,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -1,74</t>
+          <t>-9,01; -2,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,68; -30,83</t>
+          <t>-62,81; -32,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,95; -29,6</t>
+          <t>-60,74; -29,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; -4,23</t>
+          <t>-50,04; -6,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -29,01</t>
+          <t>-64,09; -30,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -3,69</t>
+          <t>-44,15; -3,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 2,85</t>
+          <t>-40,92; 2,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,66; -38,9</t>
+          <t>-59,89; -38,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -23,59</t>
+          <t>-49,05; -23,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,09; -8,75</t>
+          <t>-38,46; -10,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 24,56</t>
+          <t>11,33; 23,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,47</t>
+          <t>-8,36; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,58</t>
+          <t>-11,21; -1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,76</t>
+          <t>-0,21; 10,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,12</t>
+          <t>-3,67; 5,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,58</t>
+          <t>-8,1; 0,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 15,55</t>
+          <t>7,11; 15,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,11</t>
+          <t>-4,54; 2,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -2,02</t>
+          <t>-7,94; -1,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,72; 259,94</t>
+          <t>70,31; 250,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 16,49</t>
+          <t>-54,53; 18,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,1; -13,63</t>
+          <t>-71,75; -13,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 123,26</t>
+          <t>-2,67; 117,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 67,86</t>
+          <t>-27,69; 63,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 7,18</t>
+          <t>-59,08; 7,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,43; 153,32</t>
+          <t>52,23; 154,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 20,86</t>
+          <t>-33,15; 21,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,14; -17,62</t>
+          <t>-57,93; -16,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -2,69</t>
+          <t>-13,31; -2,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -3,33</t>
+          <t>-15,0; -3,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -2,32</t>
+          <t>-15,94; -1,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,99</t>
+          <t>-6,33; 1,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,51</t>
+          <t>-6,09; 3,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,93</t>
+          <t>-6,79; 2,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -1,65</t>
+          <t>-8,14; -1,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,14</t>
+          <t>-8,76; -1,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; -1,44</t>
+          <t>-9,78; -1,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -13,81</t>
+          <t>-49,76; -13,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,28; -16,38</t>
+          <t>-58,22; -18,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,89; -5,81</t>
+          <t>-62,65; -8,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 20,13</t>
+          <t>-41,72; 18,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 33,6</t>
+          <t>-41,32; 33,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 18,98</t>
+          <t>-43,47; 25,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,63; -10,42</t>
+          <t>-40,7; -8,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -4,93</t>
+          <t>-45,14; -8,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -8,64</t>
+          <t>-50,51; -11,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,78</t>
+          <t>0,27; 10,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,45</t>
+          <t>-6,02; 2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,05</t>
+          <t>-4,18; 4,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 10,13</t>
+          <t>-1,1; 10,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -3,22</t>
+          <t>-10,1; -3,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,69</t>
+          <t>-6,48; 2,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,63</t>
+          <t>1,19; 8,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -1,82</t>
+          <t>-6,79; -1,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,68</t>
+          <t>-4,09; 1,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 331,01</t>
+          <t>-4,74; 290,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,02; 51,7</t>
+          <t>-79,74; 71,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 120,86</t>
+          <t>-54,2; 138,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 231,04</t>
+          <t>-16,23; 227,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,65</t>
+          <t>-100,0; -58,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 50,32</t>
+          <t>-72,05; 56,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,16; 181,28</t>
+          <t>14,68; 202,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-86,7; -32,65</t>
+          <t>-88,3; -25,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 37,12</t>
+          <t>-53,45; 44,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,12; 15,16</t>
+          <t>-0,57; 15,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -18,18</t>
+          <t>-29,08; -17,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 3,8</t>
+          <t>-9,37; 4,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 13,56</t>
+          <t>0,12; 13,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -7,68</t>
+          <t>-17,71; -7,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,24</t>
+          <t>7,1; 19,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,05</t>
+          <t>2,36; 12,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -13,93</t>
+          <t>-21,48; -13,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,4</t>
+          <t>0,17; 9,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 71,01</t>
+          <t>-1,64; 72,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-96,33; -81,19</t>
+          <t>-96,75; -80,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 17,25</t>
+          <t>-32,57; 18,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 102,32</t>
+          <t>-0,1; 98,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-88,73; -56,91</t>
+          <t>-87,89; -53,81</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,91; 146,6</t>
+          <t>34,12; 152,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,84; 65,28</t>
+          <t>9,91; 65,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,84; -75,31</t>
+          <t>-90,86; -74,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,06; 50,78</t>
+          <t>0,66; 53,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,86</t>
+          <t>8,43; 17,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,09</t>
+          <t>-2,77; 5,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,1</t>
+          <t>-3,63; 4,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,57</t>
+          <t>7,83; 16,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,11</t>
+          <t>2,88; 10,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,58</t>
+          <t>-3,41; 5,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,88</t>
+          <t>9,25; 15,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,72</t>
+          <t>1,12; 6,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,96</t>
+          <t>-2,46; 3,76</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>54,53; 153,01</t>
+          <t>56,4; 157,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 54,81</t>
+          <t>-18,48; 50,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 45,43</t>
+          <t>-24,61; 43,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>65,89; 194,62</t>
+          <t>68,1; 194,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,61; 118,46</t>
+          <t>24,66; 125,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 64,2</t>
+          <t>-29,78; 68,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>69,47; 145,38</t>
+          <t>71,98; 151,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,01; 64,75</t>
+          <t>8,1; 63,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 38,67</t>
+          <t>-19,27; 37,38</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,34; -0,11</t>
+          <t>-6,33; -0,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,77</t>
+          <t>4,45; 12,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,34; 24,74</t>
+          <t>13,39; 24,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,44</t>
+          <t>-4,65; 0,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,69</t>
+          <t>5,96; 12,72</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,31</t>
+          <t>5,5; 12,2</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -0,66</t>
+          <t>-4,61; -0,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,36</t>
+          <t>6,08; 11,54</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,23</t>
+          <t>11,36; 17,28</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 0,19</t>
+          <t>-50,45; -4,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>38,37; 129,39</t>
+          <t>37,82; 134,2</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>118,56; 280,16</t>
+          <t>116,24; 271,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 6,31</t>
+          <t>-43,51; 8,34</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>51,04; 159,2</t>
+          <t>53,87; 167,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>48,55; 158,99</t>
+          <t>48,7; 152,51</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,55; -7,56</t>
+          <t>-41,06; -4,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>56,18; 126,28</t>
+          <t>53,8; 131,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>103,7; 194,71</t>
+          <t>104,12; 195,41</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,68</t>
+          <t>0,05; 3,61</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,58</t>
+          <t>-4,09; -0,47</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,15</t>
+          <t>-0,93; 3,23</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,78</t>
+          <t>-0,43; 2,6</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,72</t>
+          <t>-0,56; 2,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,28</t>
+          <t>-0,81; 2,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,71</t>
+          <t>0,19; 2,64</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,65</t>
+          <t>-1,72; 0,65</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,47; 2,2</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,77; 24,25</t>
+          <t>0,29; 24,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -4,13</t>
+          <t>-24,28; -3,17</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 21,37</t>
+          <t>-5,56; 21,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 23,41</t>
+          <t>-3,31; 21,82</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 23,34</t>
+          <t>-4,13; 22,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 19,36</t>
+          <t>-6,31; 21,26</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,36; 20,24</t>
+          <t>1,27; 19,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 4,86</t>
+          <t>-11,87; 4,95</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,14</t>
+          <t>-3,21; 16,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,39</t>
+          <t>-13,4</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 12,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -10,14</t>
+          <t>-19,07; -10,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 6,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; -10,63</t>
+          <t>-16,72; -10,65</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-98,75%</t>
+          <t>-98,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-99,31%</t>
+          <t>-99,37%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,26; 121,61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 145,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,42; 145,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,59; 46,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -93,19</t>
+          <t>-100,0; -93,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,76; 57,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -96,57</t>
+          <t>-100,0; -96,91</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,33</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -1,68</t>
+          <t>-13,1; -1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 0,43</t>
+          <t>-9,31; 0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -2,01</t>
+          <t>-8,94; -1,67</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-27,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>-20,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>-24,21%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,04; -6,62</t>
+          <t>-49,32; -4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 2,52</t>
+          <t>-40,89; 2,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,46; -10,21</t>
+          <t>-37,89; -8,14</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-4,96</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -1,71</t>
+          <t>-11,23; -1,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 0,58</t>
+          <t>-8,06; 0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -1,82</t>
+          <t>-7,94; -1,76</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,45%</t>
+          <t>-50,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>-32,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-41,47%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,75; -13,48</t>
+          <t>-71,32; -12,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 7,56</t>
+          <t>-58,63; 8,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,93; -16,64</t>
+          <t>-57,61; -15,8</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-10,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-6,38</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -2,88</t>
+          <t>-16,16; -4,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -1,77</t>
+          <t>-14,99; 1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,83</t>
+          <t>-8,86; -0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 2,57</t>
+          <t>-9,56; 1,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -1,44</t>
+          <t>-11,12; -3,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,94</t>
+          <t>-11,26; -1,88</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-34,07%</t>
+          <t>-45,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,07%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>-35,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>-29,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-27,78%</t>
+          <t>-41,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>-36,22%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,76; -13,55</t>
+          <t>-61,46; -19,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -8,15</t>
+          <t>-59,46; 9,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 18,43</t>
+          <t>-60,24; -0,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 25,77</t>
+          <t>-62,1; 10,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,7; -8,52</t>
+          <t>-57,02; -23,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,51; -11,4</t>
+          <t>-59,04; -11,54</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,2</t>
+          <t>-4,19; 4,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 2,01</t>
+          <t>-6,51; 1,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,83</t>
+          <t>-4,14; 1,75</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-1,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,88%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-21,2%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 138,29</t>
+          <t>-54,06; 137,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,05; 56,7</t>
+          <t>-71,91; 47,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 44,59</t>
+          <t>-54,48; 40,61</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 4,21</t>
+          <t>-9,59; 4,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,1; 19,45</t>
+          <t>7,11; 19,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 9,6</t>
+          <t>0,08; 9,5</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 18,84</t>
+          <t>-32,82; 18,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>34,12; 152,76</t>
+          <t>34,48; 152,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>0,66; 53,29</t>
+          <t>0,28; 53,3</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,79</t>
+          <t>-3,58; 4,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,79</t>
+          <t>-6,24; 5,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,76</t>
+          <t>-4,36; 3,15</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 43,65</t>
+          <t>-25,11; 43,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 68,71</t>
+          <t>-53,11; 56,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 37,38</t>
+          <t>-35,04; 29,78</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>19,94</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>11,36</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,39; 24,69</t>
+          <t>-0,81; 23,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,2</t>
+          <t>5,52; 12,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,28</t>
+          <t>3,2; 15,96</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>186,83%</t>
+          <t>123,47%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>143,28%</t>
+          <t>113,27%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>116,24; 271,79</t>
+          <t>-6,31; 229,44</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>48,7; 152,51</t>
+          <t>48,46; 150,66</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>104,12; 195,41</t>
+          <t>32,15; 169,11</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,23</t>
+          <t>-4,22; 1,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,44</t>
+          <t>-2,38; 1,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,2</t>
+          <t>-2,16; 1,23</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 21,43</t>
+          <t>-26,05; 12,01</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 21,26</t>
+          <t>-18,25; 13,84</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 16,18</t>
+          <t>-14,55; 8,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 12,11</t>
+          <t>-0,01; 11,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 14,05</t>
+          <t>0,22; 13,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -8,75</t>
+          <t>-16,82; -8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 5,31</t>
+          <t>-6,84; 4,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 5,64</t>
+          <t>-6,37; 5,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,07; -10,16</t>
+          <t>-18,77; -10,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 6,68</t>
+          <t>-1,74; 7,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,67</t>
+          <t>-0,17; 8,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; -10,65</t>
+          <t>-16,42; -10,46</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 121,61</t>
+          <t>-1,99; 126,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 145,46</t>
+          <t>0,25; 143,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 46,2</t>
+          <t>-40,81; 39,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 51,37</t>
+          <t>-36,96; 49,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -93,42</t>
+          <t>-100,0; -93,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 57,47</t>
+          <t>-11,86; 64,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 65,4</t>
+          <t>-0,76; 79,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -96,91</t>
+          <t>-100,0; -96,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -7,25</t>
+          <t>-16,53; -6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; -6,34</t>
+          <t>-16,07; -6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -1,04</t>
+          <t>-12,57; -0,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,3; -5,6</t>
+          <t>-14,4; -5,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -0,73</t>
+          <t>-10,09; -0,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,51</t>
+          <t>-8,66; 0,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -7,77</t>
+          <t>-14,24; -7,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -4,88</t>
+          <t>-11,73; -5,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -1,67</t>
+          <t>-9,11; -1,75</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -32,95</t>
+          <t>-62,55; -32,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,74; -29,24</t>
+          <t>-59,59; -31,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,32; -4,12</t>
+          <t>-46,54; -0,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,09; -30,85</t>
+          <t>-64,5; -29,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,15; -3,96</t>
+          <t>-44,86; -3,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 2,9</t>
+          <t>-39,08; 5,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,89; -38,4</t>
+          <t>-60,3; -38,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -23,67</t>
+          <t>-48,7; -24,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -8,14</t>
+          <t>-38,3; -8,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 23,91</t>
+          <t>11,21; 24,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 1,57</t>
+          <t>-8,24; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -1,66</t>
+          <t>-11,1; -1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 10,74</t>
+          <t>0,02; 10,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 5,69</t>
+          <t>-3,7; 6,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 0,67</t>
+          <t>-8,34; 0,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,69</t>
+          <t>7,16; 15,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,18</t>
+          <t>-4,64; 2,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -1,76</t>
+          <t>-8,13; -1,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,31; 250,95</t>
+          <t>66,85; 240,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 18,53</t>
+          <t>-55,08; 15,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,32; -12,66</t>
+          <t>-71,74; -13,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 117,19</t>
+          <t>-1,05; 122,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 63,5</t>
+          <t>-28,22; 74,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,63; 8,48</t>
+          <t>-59,73; 5,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,23; 154,09</t>
+          <t>50,02; 155,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 21,82</t>
+          <t>-34,52; 23,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -15,8</t>
+          <t>-58,43; -17,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -4,02</t>
+          <t>-16,27; -4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -3,9</t>
+          <t>-14,98; -3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 1,12</t>
+          <t>-14,34; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -0,14</t>
+          <t>-8,95; -0,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 3,38</t>
+          <t>-5,67; 3,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 1,1</t>
+          <t>-8,76; 0,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -3,82</t>
+          <t>-10,86; -3,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -1,38</t>
+          <t>-8,91; -1,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -1,88</t>
+          <t>-10,99; -2,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,46; -19,93</t>
+          <t>-62,49; -23,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,22; -18,01</t>
+          <t>-57,55; -14,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 9,0</t>
+          <t>-57,97; 9,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,24; -0,09</t>
+          <t>-58,2; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 33,17</t>
+          <t>-38,07; 33,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 10,31</t>
+          <t>-59,05; 6,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -23,75</t>
+          <t>-56,36; -25,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,14; -8,96</t>
+          <t>-45,32; -9,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,04; -11,54</t>
+          <t>-55,96; -13,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 10,65</t>
+          <t>0,04; 10,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,07</t>
+          <t>-6,28; 2,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,12</t>
+          <t>-4,31; 4,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 10,08</t>
+          <t>-0,29; 10,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -3,15</t>
+          <t>-10,22; -3,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,74</t>
+          <t>-6,5; 1,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,76</t>
+          <t>1,5; 8,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -1,48</t>
+          <t>-6,92; -1,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,75</t>
+          <t>-4,17; 1,7</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 290,16</t>
+          <t>-4,56; 327,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-79,74; 71,11</t>
+          <t>-77,97; 108,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,06; 137,91</t>
+          <t>-55,46; 127,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 227,11</t>
+          <t>-5,72; 240,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -58,89</t>
+          <t>-100,0; -61,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,91; 47,11</t>
+          <t>-73,15; 44,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,68; 202,75</t>
+          <t>15,89; 197,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-88,3; -25,67</t>
+          <t>-87,53; -33,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 40,61</t>
+          <t>-54,23; 40,89</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 15,97</t>
+          <t>-0,53; 14,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -17,72</t>
+          <t>-30,13; -18,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 4,13</t>
+          <t>-10,14; 4,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,12; 13,58</t>
+          <t>0,45; 13,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -7,31</t>
+          <t>-17,61; -7,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,11; 19,5</t>
+          <t>6,65; 18,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,12</t>
+          <t>2,21; 12,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-21,48; -13,87</t>
+          <t>-21,64; -14,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 9,5</t>
+          <t>0,39; 9,61</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 72,96</t>
+          <t>-1,81; 70,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-96,75; -80,33</t>
+          <t>-97,05; -81,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 18,77</t>
+          <t>-35,43; 20,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 98,23</t>
+          <t>1,82; 101,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-87,89; -53,81</t>
+          <t>-86,88; -50,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>34,48; 152,56</t>
+          <t>32,64; 141,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,91; 65,29</t>
+          <t>8,97; 66,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,86; -74,68</t>
+          <t>-91,22; -75,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>0,28; 53,3</t>
+          <t>1,76; 52,71</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,43; 17,18</t>
+          <t>7,95; 16,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,49</t>
+          <t>-2,65; 5,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,83</t>
+          <t>-3,63; 4,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,83; 16,07</t>
+          <t>7,64; 15,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,18</t>
+          <t>2,89; 9,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 5,18</t>
+          <t>-6,46; 4,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,23</t>
+          <t>8,94; 15,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,64</t>
+          <t>1,32; 6,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,15</t>
+          <t>-4,89; 3,35</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>56,4; 157,63</t>
+          <t>52,29; 155,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 50,42</t>
+          <t>-18,48; 48,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 43,05</t>
+          <t>-24,79; 44,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>68,1; 194,8</t>
+          <t>66,61; 190,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,66; 125,37</t>
+          <t>25,29; 121,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 56,2</t>
+          <t>-58,23; 52,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>71,98; 151,58</t>
+          <t>69,69; 151,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,1; 63,81</t>
+          <t>9,58; 66,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 29,78</t>
+          <t>-40,86; 31,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -0,47</t>
+          <t>-6,03; 0,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,0</t>
+          <t>4,89; 11,88</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 23,08</t>
+          <t>-0,68; 23,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,62</t>
+          <t>-4,84; 0,76</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,72</t>
+          <t>5,55; 12,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,08</t>
+          <t>5,39; 12,02</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -0,4</t>
+          <t>-4,61; -0,54</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,54</t>
+          <t>6,19; 11,31</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,2; 15,96</t>
+          <t>1,49; 15,87</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-50,45; -4,51</t>
+          <t>-48,91; 1,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>37,82; 134,2</t>
+          <t>38,88; 132,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 229,44</t>
+          <t>-5,96; 230,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 8,34</t>
+          <t>-45,14; 10,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>53,87; 167,37</t>
+          <t>50,93; 162,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>48,46; 150,66</t>
+          <t>50,19; 155,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-41,06; -4,95</t>
+          <t>-40,67; -5,2</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>53,8; 131,87</t>
+          <t>55,51; 126,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>32,15; 169,11</t>
+          <t>24,03; 168,01</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,61</t>
+          <t>0,08; 3,82</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,47</t>
+          <t>-4,09; -0,44</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,87</t>
+          <t>-3,58; 2,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,6</t>
+          <t>-0,59; 2,72</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,63</t>
+          <t>-0,36; 2,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,67</t>
+          <t>-2,71; 1,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,64</t>
+          <t>0,2; 2,66</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,65</t>
+          <t>-1,79; 0,76</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,23</t>
+          <t>-2,22; 1,24</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,16</t>
+          <t>0,47; 25,95</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -3,17</t>
+          <t>-24,69; -2,96</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 12,01</t>
+          <t>-21,6; 13,83</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 21,82</t>
+          <t>-4,36; 23,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 22,1</t>
+          <t>-2,83; 23,87</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 13,84</t>
+          <t>-20,04; 13,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,27; 19,59</t>
+          <t>1,31; 19,87</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 4,95</t>
+          <t>-12,3; 5,63</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 8,96</t>
+          <t>-15,5; 9,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
